--- a/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/utilities/costs.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/utilities/costs.xlsx
@@ -563,79 +563,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>464.949445762228</v>
+        <v>1537.150493197827</v>
       </c>
       <c r="B2" t="n">
-        <v>1778.634400524473</v>
+        <v>6277.533520820341</v>
       </c>
       <c r="C2" t="n">
-        <v>1451.950165638183</v>
+        <v>2631.953540334742</v>
       </c>
       <c r="D2" t="n">
-        <v>711.2672945768951</v>
+        <v>2209.694918544732</v>
       </c>
       <c r="E2" t="n">
-        <v>2324.040762802975</v>
+        <v>6641.281579252984</v>
       </c>
       <c r="F2" t="n">
-        <v>2766.106169555421</v>
+        <v>8709.387147790952</v>
       </c>
       <c r="G2" t="n">
-        <v>821.6654436392231</v>
+        <v>5810.33030203768</v>
       </c>
       <c r="H2" t="n">
-        <v>1358.583236390329</v>
+        <v>941.9773030532687</v>
       </c>
       <c r="I2" t="n">
-        <v>2352.732510924114</v>
+        <v>3852.677422545205</v>
       </c>
       <c r="J2" t="n">
-        <v>990.6688209551422</v>
+        <v>2900.931182955915</v>
       </c>
       <c r="K2" t="n">
-        <v>453.4934148248854</v>
+        <v>4000.631133985805</v>
       </c>
       <c r="L2" t="n">
-        <v>2161.73258768594</v>
+        <v>10014.95470602926</v>
       </c>
       <c r="M2" t="n">
-        <v>1055.300637631066</v>
+        <v>8501.224480941657</v>
       </c>
       <c r="N2" t="n">
-        <v>2212.964604884857</v>
+        <v>5876.392426270019</v>
       </c>
       <c r="O2" t="n">
-        <v>241.2394216327864</v>
+        <v>7014.490405967727</v>
       </c>
       <c r="P2" t="n">
-        <v>2489.997982093313</v>
+        <v>2329.880335761166</v>
       </c>
       <c r="Q2" t="n">
-        <v>1338.116937415565</v>
+        <v>2201.584029812414</v>
       </c>
       <c r="R2" t="n">
-        <v>1677.313202933935</v>
+        <v>6870.093943397811</v>
       </c>
       <c r="S2" t="n">
-        <v>1667.895417616211</v>
+        <v>4726.24093153691</v>
       </c>
       <c r="T2" t="n">
-        <v>1098.587407995843</v>
+        <v>7072.769091461018</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.47754420965</v>
+        <v>4395.92650975057</v>
       </c>
       <c r="V2" t="n">
-        <v>701.1619839813359</v>
+        <v>2878.720765530232</v>
       </c>
       <c r="W2" t="n">
-        <v>426.6693655927525</v>
+        <v>4105.504747382331</v>
       </c>
       <c r="X2" t="n">
-        <v>2078.619003319406</v>
+        <v>9294.263169348325</v>
       </c>
       <c r="Y2" t="n">
-        <v>1481.039785625681</v>
+        <v>3621.819274492403</v>
       </c>
     </row>
   </sheetData>
